--- a/wyniki_Kusztal.xlsx
+++ b/wyniki_Kusztal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15.01.2025 18:11</t>
+          <t>16.01.2025 11:22</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>341.4</v>
+        <v>2077.1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.24</v>
+        <v>4.42</v>
       </c>
       <c r="D2" t="n">
-        <v>1.647893692857143</v>
+        <v>2.040787833</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -484,17 +484,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>15.01.2025 18:15</t>
+          <t>16.01.2025 12:10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.9</v>
+        <v>4968.5</v>
       </c>
       <c r="C3" t="n">
-        <v>4.98</v>
+        <v>3.74</v>
       </c>
       <c r="D3" t="n">
-        <v>1.843519134428572</v>
+        <v>2.123419319</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -505,17 +505,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15.01.2025 18:16</t>
+          <t>16.01.2025 12:13</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7</v>
+        <v>5157.3</v>
       </c>
       <c r="C4" t="n">
-        <v>3.98</v>
+        <v>4.88</v>
       </c>
       <c r="D4" t="n">
-        <v>2.027529673857143</v>
+        <v>2.190605793714286</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -526,17 +526,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>15.01.2025 18:36</t>
+          <t>16.01.2025 12:28</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1867.1</v>
+        <v>6019.1</v>
       </c>
       <c r="C5" t="n">
-        <v>4.19</v>
+        <v>3.66</v>
       </c>
       <c r="D5" t="n">
-        <v>1.703416168714286</v>
+        <v>2.433138481</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -547,17 +547,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>15.01.2025 18:43</t>
+          <t>16.01.2025 12:32</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2235.8</v>
+        <v>6299.6</v>
       </c>
       <c r="C6" t="n">
-        <v>4.27</v>
+        <v>3.94</v>
       </c>
       <c r="D6" t="n">
-        <v>2.157249433714286</v>
+        <v>2.661869285285714</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -568,17 +568,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15.01.2025 18:43</t>
+          <t>16.01.2025 12:34</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250.1</v>
+        <v>6383.8</v>
       </c>
       <c r="C7" t="n">
-        <v>4.26</v>
+        <v>2.92</v>
       </c>
       <c r="D7" t="n">
-        <v>2.169171691</v>
+        <v>3.483972655714286</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -589,17 +589,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>15.01.2025 18:48</t>
+          <t>16.01.2025 12:35</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2572.4</v>
+        <v>6448.4</v>
       </c>
       <c r="C8" t="n">
-        <v>4.5</v>
+        <v>4.79</v>
       </c>
       <c r="D8" t="n">
-        <v>1.723502593428571</v>
+        <v>5.682362794857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -610,17 +610,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>15.01.2025 18:49</t>
+          <t>16.01.2025 12:35</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2618.6</v>
+        <v>6462</v>
       </c>
       <c r="C9" t="n">
-        <v>4.33</v>
+        <v>4.32</v>
       </c>
       <c r="D9" t="n">
-        <v>1.657290663</v>
+        <v>5.162791311857142</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -631,17 +631,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>15.01.2025 18:50</t>
+          <t>16.01.2025 12:35</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2683.1</v>
+        <v>6468.7</v>
       </c>
       <c r="C10" t="n">
-        <v>4.5</v>
+        <v>4.44</v>
       </c>
       <c r="D10" t="n">
-        <v>1.699330576857143</v>
+        <v>5.324074702</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -652,17 +652,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>15.01.2025 18:51</t>
+          <t>16.01.2025 12:35</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2757.6</v>
+        <v>6483.3</v>
       </c>
       <c r="C11" t="n">
-        <v>4.58</v>
+        <v>4.16</v>
       </c>
       <c r="D11" t="n">
-        <v>1.908903088142857</v>
+        <v>4.893544827428571</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -673,210 +673,3423 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>15.01.2025 18:16</t>
+          <t>16.01.2025 11:16</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>611.4</v>
+        <v>1703.9</v>
       </c>
       <c r="C12" t="n">
-        <v>13.95</v>
+        <v>14.77</v>
       </c>
       <c r="D12" t="n">
-        <v>3.455618449857143</v>
+        <v>3.300378526857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5+</t>
+          <t>10-15</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>15.01.2025 18:16</t>
+          <t>16.01.2025 11:31</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>668.2</v>
+        <v>2634.1</v>
       </c>
       <c r="C13" t="n">
-        <v>9.710000000000001</v>
+        <v>14.65</v>
       </c>
       <c r="D13" t="n">
-        <v>2.868038960857143</v>
+        <v>3.922104835428572</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5+</t>
+          <t>10-15</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>15.01.2025 18:38</t>
+          <t>16.01.2025 12:03</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1986</v>
+        <v>4533</v>
       </c>
       <c r="C14" t="n">
-        <v>10.54</v>
+        <v>14.91</v>
       </c>
       <c r="D14" t="n">
-        <v>2.701030697285714</v>
+        <v>3.473568541571429</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5+</t>
+          <t>10-15</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15.01.2025 18:43</t>
+          <t>16.01.2025 12:05</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2236.3</v>
+        <v>4636.3</v>
       </c>
       <c r="C15" t="n">
-        <v>11.47</v>
+        <v>14.25</v>
       </c>
       <c r="D15" t="n">
-        <v>3.309062685285714</v>
+        <v>3.696562835142857</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5+</t>
+          <t>10-15</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15.01.2025 18:43</t>
+          <t>16.01.2025 12:27</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2250.5</v>
+        <v>5985.3</v>
       </c>
       <c r="C16" t="n">
-        <v>9.949999999999999</v>
+        <v>14.12</v>
       </c>
       <c r="D16" t="n">
-        <v>3.022481067</v>
+        <v>3.380763624428571</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5+</t>
+          <t>10-15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>15.01.2025 18:43</t>
+          <t>16.01.2025 12:28</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.9</v>
+        <v>6019.5</v>
       </c>
       <c r="C17" t="n">
-        <v>16.7</v>
+        <v>10.79</v>
       </c>
       <c r="D17" t="n">
-        <v>3.482614381</v>
+        <v>3.447345938</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5+</t>
+          <t>10-15</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>15.01.2025 18:45</t>
+          <t>16.01.2025 12:32</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2384</v>
+        <v>6300</v>
       </c>
       <c r="C18" t="n">
-        <v>16.58</v>
+        <v>12.19</v>
       </c>
       <c r="D18" t="n">
-        <v>3.824803999428571</v>
+        <v>4.071712732428571</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5+</t>
+          <t>10-15</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>15.01.2025 18:47</t>
+          <t>16.01.2025 12:32</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2515.9</v>
+        <v>6306.7</v>
       </c>
       <c r="C19" t="n">
-        <v>12.51</v>
+        <v>13.25</v>
       </c>
       <c r="D19" t="n">
-        <v>2.713179009142857</v>
+        <v>4.712790938142858</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5+</t>
+          <t>10-15</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>15.01.2025 18:48</t>
+          <t>16.01.2025 12:34</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2561.6</v>
+        <v>6384</v>
       </c>
       <c r="C20" t="n">
         <v>11.35</v>
       </c>
       <c r="D20" t="n">
-        <v>2.703453098</v>
+        <v>5.907141736428571</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5+</t>
+          <t>10-15</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>15.01.2025 18:51</t>
+          <t>16.01.2025 12:35</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2765.8</v>
+        <v>6448.5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.03</v>
+        <v>10.73</v>
       </c>
       <c r="D21" t="n">
-        <v>3.116535221</v>
+        <v>7.357224481571429</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5+</t>
+          <t>10-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>16.01.2025 11:31</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2634.2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.905552625571429</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>15-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:03</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4533.1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.638481616857143</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>15-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:27</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>5985.6</v>
+      </c>
+      <c r="C24" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.482259001142857</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>15-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:32</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6306.9</v>
+      </c>
+      <c r="C25" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6.192161764285714</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>15-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:34</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6384.2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7.309484277428572</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>15-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6448.6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="D27" t="n">
+        <v>8.881651094857142</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>15-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6462.2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7.963463170428571</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>15-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>6468.9</v>
+      </c>
+      <c r="C29" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="D29" t="n">
+        <v>8.248057467142857</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>15-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>6470.8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4.298999940000001</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>15-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6483.5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7.606732231571428</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>15-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:27</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5985.7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.229059798571428</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:32</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6307</v>
+      </c>
+      <c r="C33" t="n">
+        <v>21.28</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6.287332126000001</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:34</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6384.3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="D34" t="n">
+        <v>7.445593425142856</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>6448.7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>23.57</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10.05123662928571</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>6453.2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5.604720013142858</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>6462.3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="D37" t="n">
+        <v>8.981908526285714</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>6469</v>
+      </c>
+      <c r="C38" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9.319117273714285</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>6470.9</v>
+      </c>
+      <c r="C39" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="D39" t="n">
+        <v>6.746174693142857</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>6483.7</v>
+      </c>
+      <c r="C40" t="n">
+        <v>24.82</v>
+      </c>
+      <c r="D40" t="n">
+        <v>9.106146879714284</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>6485.4</v>
+      </c>
+      <c r="C41" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3.549826565</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:28</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>6054.9</v>
+      </c>
+      <c r="C42" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.318734773428571</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:34</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>6384.5</v>
+      </c>
+      <c r="C43" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6.686232635000001</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>25-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>6448.8</v>
+      </c>
+      <c r="C44" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10.71841989242857</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>6453.3</v>
+      </c>
+      <c r="C45" t="n">
+        <v>26.02</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7.456889901571429</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>25-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>6462.5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9.630474295571428</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>25-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>6469.1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>26.65</v>
+      </c>
+      <c r="D47" t="n">
+        <v>9.888922350857143</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>6471</v>
+      </c>
+      <c r="C48" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="D48" t="n">
+        <v>8.538323743000001</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>25-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>6476.1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>28.38</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5.437606607142857</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>25-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>6483.8</v>
+      </c>
+      <c r="C50" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="D50" t="n">
+        <v>9.100011484142858</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>25-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>6485.7</v>
+      </c>
+      <c r="C51" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5.994850090428572</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>25-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:29</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>6071.8</v>
+      </c>
+      <c r="C52" t="n">
+        <v>32</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.210443666428571</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>30-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:33</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>6345.2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>34.01</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.514224955</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>30-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>6448.9</v>
+      </c>
+      <c r="C54" t="n">
+        <v>33.11</v>
+      </c>
+      <c r="D54" t="n">
+        <v>10.82234450742857</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>30-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>6453.5</v>
+      </c>
+      <c r="C55" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="D55" t="n">
+        <v>8.845144612142857</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>30-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>6462.6</v>
+      </c>
+      <c r="C56" t="n">
+        <v>32.21</v>
+      </c>
+      <c r="D56" t="n">
+        <v>9.227990083</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>30-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>6469.2</v>
+      </c>
+      <c r="C57" t="n">
+        <v>30.58</v>
+      </c>
+      <c r="D57" t="n">
+        <v>9.813620567428572</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>30-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>6471.1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="D58" t="n">
+        <v>9.579853807285716</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>30-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>6476.2</v>
+      </c>
+      <c r="C59" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="D59" t="n">
+        <v>6.804403781857142</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>30-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>6483.9</v>
+      </c>
+      <c r="C60" t="n">
+        <v>30.81</v>
+      </c>
+      <c r="D60" t="n">
+        <v>8.509864125142858</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>30-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>6485.8</v>
+      </c>
+      <c r="C61" t="n">
+        <v>31.17</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5.824363197428572</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>30-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:28</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>6063.7</v>
+      </c>
+      <c r="C62" t="n">
+        <v>37.87</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.267817105571428</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>35-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:29</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>6072.1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>39.74</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4.320630039428572</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>35-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>6143</v>
+      </c>
+      <c r="C64" t="n">
+        <v>37.74</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.202663813285714</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>35-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:34</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>6389</v>
+      </c>
+      <c r="C65" t="n">
+        <v>39.77</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.035436724</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>35-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>6449</v>
+      </c>
+      <c r="C66" t="n">
+        <v>36.17</v>
+      </c>
+      <c r="D66" t="n">
+        <v>10.38603190014286</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>35-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>6453.6</v>
+      </c>
+      <c r="C67" t="n">
+        <v>35.62</v>
+      </c>
+      <c r="D67" t="n">
+        <v>8.400693961285713</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>35-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>6462.8</v>
+      </c>
+      <c r="C68" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="D68" t="n">
+        <v>7.333708048142858</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>35-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>6469.4</v>
+      </c>
+      <c r="C69" t="n">
+        <v>35.47</v>
+      </c>
+      <c r="D69" t="n">
+        <v>7.482238207142857</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>35-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>6471.2</v>
+      </c>
+      <c r="C70" t="n">
+        <v>35.03</v>
+      </c>
+      <c r="D70" t="n">
+        <v>9.882789339428571</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>35-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>6476.3</v>
+      </c>
+      <c r="C71" t="n">
+        <v>36.34</v>
+      </c>
+      <c r="D71" t="n">
+        <v>7.205078329285714</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>35-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:28</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>6064.3</v>
+      </c>
+      <c r="C72" t="n">
+        <v>40.26</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.102230796</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>40-45</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:29</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>6072.2</v>
+      </c>
+      <c r="C73" t="n">
+        <v>41.08</v>
+      </c>
+      <c r="D73" t="n">
+        <v>4.518953902285714</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>40-45</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>6144.2</v>
+      </c>
+      <c r="C74" t="n">
+        <v>42.77</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.171791145</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>40-45</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:31</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>6241.2</v>
+      </c>
+      <c r="C75" t="n">
+        <v>40.28</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.920243357</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>40-45</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:33</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>6319.4</v>
+      </c>
+      <c r="C76" t="n">
+        <v>43.52</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.5579048564285715</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>40-45</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:33</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>6353.5</v>
+      </c>
+      <c r="C77" t="n">
+        <v>40.13</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.5845577672857143</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>40-45</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:34</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>6389.1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>40.18</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.029840690714286</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>40-45</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:34</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>6390.1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>43.34</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.8230246391428571</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>40-45</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>6449.3</v>
+      </c>
+      <c r="C80" t="n">
+        <v>40.06</v>
+      </c>
+      <c r="D80" t="n">
+        <v>6.870877572714286</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>40-45</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>6476.5</v>
+      </c>
+      <c r="C81" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5.071674606571428</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>40-45</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:29</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>6082.7</v>
+      </c>
+      <c r="C82" t="n">
+        <v>45.94</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.4921121722857143</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>45-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:29</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>6084.4</v>
+      </c>
+      <c r="C83" t="n">
+        <v>49.17</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.6360016125714285</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>45-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>6144.8</v>
+      </c>
+      <c r="C84" t="n">
+        <v>45.23</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.126970274142857</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>45-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>6145.8</v>
+      </c>
+      <c r="C85" t="n">
+        <v>48.36</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.5835566331428571</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>45-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>6148.3</v>
+      </c>
+      <c r="C86" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.5343634058571429</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>45-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:32</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>6251.5</v>
+      </c>
+      <c r="C87" t="n">
+        <v>48.17</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.4173483934285714</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>45-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:32</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>6252.5</v>
+      </c>
+      <c r="C88" t="n">
+        <v>49.93</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.5168853102857143</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>45-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:33</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>6324</v>
+      </c>
+      <c r="C89" t="n">
+        <v>45.01</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.5641503419999999</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>45-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:34</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>6393.5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.4041046329999999</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>45-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:34</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>6396.3</v>
+      </c>
+      <c r="C91" t="n">
+        <v>49.24</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.6934032271428572</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>45-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>16.01.2025 11:39</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>3112.6</v>
+      </c>
+      <c r="C92" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="D92" t="n">
+        <v>3.039097513428572</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:05</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>4635.9</v>
+      </c>
+      <c r="C93" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3.179248503142857</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:10</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>4968.9</v>
+      </c>
+      <c r="C94" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="D94" t="n">
+        <v>3.068518536571429</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:28</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>6019.4</v>
+      </c>
+      <c r="C95" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D95" t="n">
+        <v>3.451748234857143</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:32</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>6299.8</v>
+      </c>
+      <c r="C96" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3.740107638571428</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:32</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>6306.6</v>
+      </c>
+      <c r="C97" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3.356311736142857</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:34</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>6383.9</v>
+      </c>
+      <c r="C98" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="D98" t="n">
+        <v>4.762672522142856</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>6462.1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D99" t="n">
+        <v>6.630278911142858</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>6468.8</v>
+      </c>
+      <c r="C100" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D100" t="n">
+        <v>6.851709161428571</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:35</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>6483.4</v>
+      </c>
+      <c r="C101" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="D101" t="n">
+        <v>6.319236023142857</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:29</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>6084.9</v>
+      </c>
+      <c r="C102" t="n">
+        <v>50.04</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.4772251120000001</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>50-55</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:29</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>6086.9</v>
+      </c>
+      <c r="C103" t="n">
+        <v>53.29</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.6009270122857142</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>50-55</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>6149.3</v>
+      </c>
+      <c r="C104" t="n">
+        <v>52.08</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.6521402087142857</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>50-55</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>6150.3</v>
+      </c>
+      <c r="C105" t="n">
+        <v>54.69</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.7410786405714286</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>50-55</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:32</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>6252.9</v>
+      </c>
+      <c r="C106" t="n">
+        <v>50.68</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.5264628445714287</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>50-55</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:32</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>6253.9</v>
+      </c>
+      <c r="C107" t="n">
+        <v>52.62</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.5541237507142858</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>50-55</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:32</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>6255.2</v>
+      </c>
+      <c r="C108" t="n">
+        <v>54.92</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.5227218058571429</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>50-55</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:34</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>6396.7</v>
+      </c>
+      <c r="C109" t="n">
+        <v>50.04</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.5821953885714286</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>50-55</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:34</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>6398.9</v>
+      </c>
+      <c r="C110" t="n">
+        <v>52.94</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.6234806607142858</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>50-55</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:34</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>6400.1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>54.92</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.4357828285714286</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>50-55</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:29</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>6092.8</v>
+      </c>
+      <c r="C112" t="n">
+        <v>56.35</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.3934205345714286</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>55-60</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:29</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>6094</v>
+      </c>
+      <c r="C113" t="n">
+        <v>57.36</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.3431840731428571</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>55-60</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:29</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>6095</v>
+      </c>
+      <c r="C114" t="n">
+        <v>59.09</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.5063474985714286</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>55-60</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>6150.5</v>
+      </c>
+      <c r="C115" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.738299489</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>55-60</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>6152.2</v>
+      </c>
+      <c r="C116" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.8027876444285714</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>55-60</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:32</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>6255.5</v>
+      </c>
+      <c r="C117" t="n">
+        <v>55.64</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.5677832620000001</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>55-60</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:32</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>6256.5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>57.22</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.4230985854285713</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>55-60</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:32</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>6257.6</v>
+      </c>
+      <c r="C119" t="n">
+        <v>59.16</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.5071992618571428</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>55-60</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:34</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>6400.3</v>
+      </c>
+      <c r="C120" t="n">
+        <v>55.27</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.4591572838571428</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>55-60</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:34</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>6401.3</v>
+      </c>
+      <c r="C121" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.7560199670000001</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>55-60</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:29</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>6095.6</v>
+      </c>
+      <c r="C122" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.4775722708571428</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>60-65</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:29</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>6096.6</v>
+      </c>
+      <c r="C123" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.5930321132857143</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>60-65</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:29</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>6097.6</v>
+      </c>
+      <c r="C124" t="n">
+        <v>63.42</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.1593324721428571</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>60-65</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>6152.5</v>
+      </c>
+      <c r="C125" t="n">
+        <v>60.74</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.8317334564285714</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>60-65</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>6154.2</v>
+      </c>
+      <c r="C126" t="n">
+        <v>64.79000000000001</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.7341983744285715</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>60-65</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:32</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>6259.1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>61.68</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.4930779637142857</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>60-65</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:32</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>6260.2</v>
+      </c>
+      <c r="C128" t="n">
+        <v>63.73</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.5368219614285714</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>60-65</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:34</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>6402.4</v>
+      </c>
+      <c r="C129" t="n">
+        <v>60.47</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.6752067380000001</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>60-65</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:34</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>6403.6</v>
+      </c>
+      <c r="C130" t="n">
+        <v>63.42</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.699652723</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>60-65</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:34</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>6413.4</v>
+      </c>
+      <c r="C131" t="n">
+        <v>63.67</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.1142622731428572</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>60-65</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>6154.5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>65.68000000000001</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.7590589864285714</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>65-70</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>6155.5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>68.03</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.5152773601428572</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>65-70</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>6156.5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>67.94</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-0.1102134777142857</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>65-70</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>6158.7</v>
+      </c>
+      <c r="C135" t="n">
+        <v>67</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.02449157642857143</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>65-70</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>6159.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.2608855578571428</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>65-70</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>6161.4</v>
+      </c>
+      <c r="C137" t="n">
+        <v>69.72</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.3588746230000001</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>65-70</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:32</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>6261</v>
+      </c>
+      <c r="C138" t="n">
+        <v>65.06</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.436440302</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>65-70</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:32</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>6262</v>
+      </c>
+      <c r="C139" t="n">
+        <v>65.45999999999999</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-0.06515992071428571</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>65-70</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:34</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>6404.4</v>
+      </c>
+      <c r="C140" t="n">
+        <v>65.02</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.5672634925714285</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>65-70</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:34</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>6405.4</v>
+      </c>
+      <c r="C141" t="n">
+        <v>66.48999999999999</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.1471894392857143</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>65-70</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>6161.7</v>
+      </c>
+      <c r="C142" t="n">
+        <v>70.04000000000001</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.3511429981428572</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>70-75</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>6162.7</v>
+      </c>
+      <c r="C143" t="n">
+        <v>71.47</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.4095693018571429</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>70-75</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>6164.2</v>
+      </c>
+      <c r="C144" t="n">
+        <v>73.55</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.4133460862857143</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>70-75</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>6165.3</v>
+      </c>
+      <c r="C145" t="n">
+        <v>74.88</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.3747373947142857</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>70-75</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:31</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>6211.6</v>
+      </c>
+      <c r="C146" t="n">
+        <v>74.09</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-0.2677716122857143</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>70-75</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:31</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>6212.9</v>
+      </c>
+      <c r="C147" t="n">
+        <v>72.23999999999999</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-0.3746930742857142</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>70-75</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:31</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>6214.3</v>
+      </c>
+      <c r="C148" t="n">
+        <v>70.06</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-0.430954516</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>70-75</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>6165.6</v>
+      </c>
+      <c r="C149" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.4023611418571428</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>75-80</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>6166.6</v>
+      </c>
+      <c r="C150" t="n">
+        <v>76.56</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.3205366432857143</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>75-80</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>6168.1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>77.78</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.1960173418571429</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>75-80</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>6169.6</v>
+      </c>
+      <c r="C152" t="n">
+        <v>78.61</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.1723999978571429</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>75-80</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>6171.3</v>
+      </c>
+      <c r="C153" t="n">
+        <v>78</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-0.08691559157142856</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>75-80</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>6172.3</v>
+      </c>
+      <c r="C154" t="n">
+        <v>79.11</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.3241869212857143</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>75-80</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>6182.5</v>
+      </c>
+      <c r="C155" t="n">
+        <v>78.41</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.08541598985714285</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>75-80</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>6183.5</v>
+      </c>
+      <c r="C156" t="n">
+        <v>79.01000000000001</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.1901993558571428</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>75-80</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>6185.2</v>
+      </c>
+      <c r="C157" t="n">
+        <v>79.91</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.2713808651428571</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>75-80</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:31</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>6207.8</v>
+      </c>
+      <c r="C158" t="n">
+        <v>78.37</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-0.06147625757142857</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>75-80</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>6173.6</v>
+      </c>
+      <c r="C159" t="n">
+        <v>80.45999999999999</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.3250985782857143</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>80-85</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>6174.6</v>
+      </c>
+      <c r="C160" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.4308520897142857</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>80-85</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>6175.6</v>
+      </c>
+      <c r="C161" t="n">
+        <v>82.62</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.005413199999999999</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>80-85</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>6177.5</v>
+      </c>
+      <c r="C162" t="n">
+        <v>81.53</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-0.04246592685714286</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>80-85</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>6185.7</v>
+      </c>
+      <c r="C163" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.3257278672857143</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>80-85</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>6186.7</v>
+      </c>
+      <c r="C164" t="n">
+        <v>81.48</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.2834393594285714</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>80-85</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:30</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>6187.7</v>
+      </c>
+      <c r="C165" t="n">
+        <v>83</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.4329616981428571</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>80-85</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:31</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>6189</v>
+      </c>
+      <c r="C166" t="n">
+        <v>84.91</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.4442334302857143</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>80-85</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:31</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>6202.1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>81.73</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-0.07802702328571429</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>80-85</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:31</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>6204.5</v>
+      </c>
+      <c r="C168" t="n">
+        <v>80.36</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-0.080324794</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>80-85</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:31</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>6189.8</v>
+      </c>
+      <c r="C169" t="n">
+        <v>86.18000000000001</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.4681605652857144</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>85-90</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:31</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>6190.8</v>
+      </c>
+      <c r="C170" t="n">
+        <v>87.66</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.3361026901428571</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>85-90</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:31</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>6191.8</v>
+      </c>
+      <c r="C171" t="n">
+        <v>88.33</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.06618587799999999</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>85-90</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:31</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>6192.9</v>
+      </c>
+      <c r="C172" t="n">
+        <v>87.66</v>
+      </c>
+      <c r="D172" t="n">
+        <v>-0.1545721312857143</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>85-90</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:31</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>6194.6</v>
+      </c>
+      <c r="C173" t="n">
+        <v>86.51000000000001</v>
+      </c>
+      <c r="D173" t="n">
+        <v>-0.1588038844285714</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>85-90</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>16.01.2025 12:31</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>6196.1</v>
+      </c>
+      <c r="C174" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="D174" t="n">
+        <v>-0.08130403171428571</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>85-90</t>
         </is>
       </c>
     </row>
